--- a/SASPROSTER.xlsx
+++ b/SASPROSTER.xlsx
@@ -12,60 +12,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
-  <si>
-    <t>Options</t>
-  </si>
-  <si>
-    <t>N/A</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="220">
+  <si>
+    <t>OFFICERS</t>
+  </si>
+  <si>
+    <t>CARS</t>
+  </si>
+  <si>
+    <t>SELECT</t>
   </si>
   <si>
     <t>X-100 | HENRY JAMES</t>
   </si>
   <si>
+    <t>SRU - STALLION SPEED UNIT</t>
+  </si>
+  <si>
     <t>X-102 | DEMON WALKER</t>
   </si>
   <si>
+    <t>SRU - 2018 CHALLENGER HELLCAT</t>
+  </si>
+  <si>
     <t>LT-120 | SHARP EYE</t>
   </si>
   <si>
+    <t>SRU - 2018 ZR1 CORVEX</t>
+  </si>
+  <si>
     <t>LT-121 | WILLIAM WATSON</t>
   </si>
   <si>
+    <t>2018 CHARGE DODGER</t>
+  </si>
+  <si>
     <t>CO-301 | ANTHONY HUDSON</t>
   </si>
   <si>
+    <t>2014 CHARGE DODGER</t>
+  </si>
+  <si>
     <t>CO-302 | AIM WINTERTHORN</t>
   </si>
   <si>
+    <t>2006 DEMON CHASER</t>
+  </si>
+  <si>
     <t>CO-303 | VEER RAJPUT</t>
   </si>
   <si>
+    <t>2018 FALCON TAURON FPIS</t>
+  </si>
+  <si>
     <t>CO-304 | JOHN WICK</t>
   </si>
   <si>
+    <t>2020 RAM 3500 HD</t>
+  </si>
+  <si>
     <t>CO-305 | SIMON RILEY</t>
   </si>
   <si>
+    <t>2013 FALCON CROWN VICAR CVPI</t>
+  </si>
+  <si>
     <t>CO-333 | RIO HILLS</t>
   </si>
   <si>
+    <t>2016 FALCON PATHFINDER FPIU</t>
+  </si>
+  <si>
     <t>ST-401 | JACK MENDOZA</t>
   </si>
   <si>
+    <t>2013 CHEVIE CAPRICORN</t>
+  </si>
+  <si>
     <t>ST-402 | OLIVER MARBLE</t>
   </si>
   <si>
+    <t>2018 CHEVIE TAIGA</t>
+  </si>
+  <si>
     <t>ST-404 | CALLISTO BELOV</t>
   </si>
   <si>
+    <t>2020 FALCON F250 HEAVY DUTY</t>
+  </si>
+  <si>
     <t>ST-405 | MOSANDA SWAMI</t>
   </si>
   <si>
+    <t>1991 CHEVIE POLICE K5 BLAZER</t>
+  </si>
+  <si>
     <t>ST-406 | RUDRA SIGH</t>
   </si>
   <si>
+    <t>BIKE - KAWASAKI CONCURS 14P</t>
+  </si>
+  <si>
     <t>ST-407 | KAAL SHASTRI</t>
+  </si>
+  <si>
+    <t>BIKE - PD ENDURO MOTORCYCLE</t>
   </si>
   <si>
     <t>ST-408 | EARL RAJPUT</t>
@@ -658,12 +709,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -890,7 +944,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="33.25"/>
-    <col customWidth="1" min="2" max="2" width="21.5"/>
+    <col customWidth="1" min="2" max="2" width="35.5"/>
     <col customWidth="1" min="3" max="3" width="29.25"/>
   </cols>
   <sheetData>
@@ -898,411 +952,449 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2"/>
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>17</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>27</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="B24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="B25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="B28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="B32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="B43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="B44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="B45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="B51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="B58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="B60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="B61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="B63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="B64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="B67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B69" s="2"/>
     </row>
@@ -1326,538 +1418,538 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>78</v>
+        <v>94</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>80</v>
+        <v>96</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>82</v>
+        <v>98</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>100</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>86</v>
+        <v>102</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>88</v>
+        <v>104</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>90</v>
+        <v>106</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>92</v>
+        <v>108</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>94</v>
+        <v>110</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>96</v>
+        <v>112</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>98</v>
+        <v>114</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>100</v>
+        <v>116</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>102</v>
+        <v>118</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>104</v>
+        <v>120</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>106</v>
+        <v>122</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>108</v>
+        <v>124</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>110</v>
+        <v>126</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>112</v>
+        <v>128</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>114</v>
+        <v>130</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>116</v>
+        <v>132</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>118</v>
+        <v>134</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>120</v>
+        <v>136</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>122</v>
+        <v>138</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>124</v>
+        <v>140</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>126</v>
+        <v>142</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>128</v>
+        <v>144</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>130</v>
+        <v>146</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>132</v>
+        <v>148</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>134</v>
+        <v>150</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>136</v>
+        <v>152</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>138</v>
+        <v>154</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>140</v>
+        <v>156</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>142</v>
+        <v>158</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>144</v>
+        <v>160</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>146</v>
+        <v>162</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>148</v>
+        <v>164</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>150</v>
+        <v>166</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>152</v>
+        <v>168</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>154</v>
+        <v>170</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>156</v>
+        <v>172</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>158</v>
+        <v>174</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>160</v>
+        <v>176</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>162</v>
+        <v>178</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>164</v>
+        <v>180</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>166</v>
+        <v>182</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>168</v>
+        <v>184</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>170</v>
+        <v>186</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>172</v>
+        <v>188</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>174</v>
+        <v>190</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>176</v>
+        <v>192</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>178</v>
+        <v>194</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>180</v>
+        <v>196</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>182</v>
+        <v>198</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>184</v>
+        <v>200</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>186</v>
+        <v>202</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>188</v>
+        <v>204</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>190</v>
+        <v>206</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>192</v>
+        <v>208</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>194</v>
+        <v>210</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>196</v>
+        <v>212</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>198</v>
+        <v>214</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>200</v>
+        <v>216</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>202</v>
+        <v>218</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
